--- a/Waste/A1_Outputs/A-O_Parametrization.xlsx
+++ b/Waste/A1_Outputs/A-O_Parametrization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\Waste3\A1_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\Waste_2025_01_13\A1_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1CA2FC-DF44-4229-8273-C70D75BDDA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBA5A1-4836-4BE9-BA9E-F3B9ED34543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixed Horizon Parameters" sheetId="1" r:id="rId1"/>
@@ -2453,9 +2453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66:AH67"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7786,49 +7786,49 @@
         <v>0</v>
       </c>
       <c r="T97" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="U97" s="15">
-        <v>6.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V97" s="15">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="W97" s="15">
-        <v>1.2E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="X97" s="15">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Y97" s="15">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z97" s="15">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AA97" s="15">
-        <v>2.4E-2</v>
+        <v>0</v>
       </c>
       <c r="AB97" s="15">
-        <v>2.7E-2</v>
+        <v>0</v>
       </c>
       <c r="AC97" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AD97" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AE97" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AF97" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AG97" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AH97" s="16">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.3">
@@ -7890,49 +7890,49 @@
         <v>0</v>
       </c>
       <c r="T98" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="U98" s="15">
-        <v>6.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V98" s="15">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="W98" s="15">
-        <v>1.2E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="X98" s="15">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Y98" s="15">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z98" s="15">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AA98" s="15">
-        <v>2.4E-2</v>
+        <v>0</v>
       </c>
       <c r="AB98" s="15">
-        <v>2.7E-2</v>
+        <v>0</v>
       </c>
       <c r="AC98" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AD98" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AE98" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AF98" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AG98" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AH98" s="16">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.3">
@@ -10527,9 +10527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I108" sqref="I108:AH108"/>
+      <selection pane="bottomLeft" activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14338,37 +14338,37 @@
         <v>3.1476000000000002</v>
       </c>
       <c r="V68" s="27">
-        <v>3.3294999999999999</v>
+        <v>3.3296000000000001</v>
       </c>
       <c r="W68" s="27">
-        <v>3.5148999999999999</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="X68" s="27">
-        <v>3.7034999999999996</v>
+        <v>3.7035</v>
       </c>
       <c r="Y68" s="27">
-        <v>3.8951000000000002</v>
+        <v>3.8952</v>
       </c>
       <c r="Z68" s="27">
-        <v>4.0896999999999997</v>
+        <v>4.0898000000000003</v>
       </c>
       <c r="AA68" s="27">
-        <v>4.2871000000000006</v>
+        <v>4.2873000000000001</v>
       </c>
       <c r="AB68" s="27">
-        <v>4.4875999999999996</v>
+        <v>4.4877000000000002</v>
       </c>
       <c r="AC68" s="27">
-        <v>4.6907000000000005</v>
+        <v>4.6906999999999996</v>
       </c>
       <c r="AD68" s="27">
-        <v>4.7822000000000005</v>
+        <v>4.7823000000000002</v>
       </c>
       <c r="AE68" s="27">
-        <v>4.8740000000000006</v>
+        <v>4.8739999999999997</v>
       </c>
       <c r="AF68" s="27">
-        <v>4.9657000000000009</v>
+        <v>4.9657</v>
       </c>
       <c r="AG68" s="27">
         <v>5.0574000000000003</v>
@@ -16554,37 +16554,37 @@
         <v>3.1476000000000002</v>
       </c>
       <c r="V108" s="27">
-        <v>3.3294999999999999</v>
+        <v>3.3296000000000001</v>
       </c>
       <c r="W108" s="27">
-        <v>3.5148999999999999</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="X108" s="27">
-        <v>3.7034999999999996</v>
+        <v>3.7035</v>
       </c>
       <c r="Y108" s="27">
-        <v>3.8951000000000002</v>
+        <v>3.8952</v>
       </c>
       <c r="Z108" s="27">
-        <v>4.0896999999999997</v>
+        <v>4.0898000000000003</v>
       </c>
       <c r="AA108" s="27">
-        <v>4.2871000000000006</v>
+        <v>4.2873000000000001</v>
       </c>
       <c r="AB108" s="27">
-        <v>4.4875999999999996</v>
+        <v>4.4877000000000002</v>
       </c>
       <c r="AC108" s="27">
-        <v>4.6907000000000005</v>
+        <v>4.6906999999999996</v>
       </c>
       <c r="AD108" s="27">
-        <v>4.7822000000000005</v>
+        <v>4.7823000000000002</v>
       </c>
       <c r="AE108" s="27">
-        <v>4.8740000000000006</v>
+        <v>4.8739999999999997</v>
       </c>
       <c r="AF108" s="27">
-        <v>4.9657000000000009</v>
+        <v>4.9657</v>
       </c>
       <c r="AG108" s="27">
         <v>5.0574000000000003</v>
@@ -17632,6 +17632,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8F814574E960A4499025803604D4DF4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314e7041d7d1561dbe33e80becf1c782">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b2ff61d-e0c4-454b-ba72-44cf85c32a41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84c838da6aa04a0f137f8b0aba02cfe1" ns2:_="">
     <xsd:import namespace="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
@@ -17801,29 +17816,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A08CD71-5E2D-4905-B2EF-ECA0943377A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3460C12E-FD22-4CA3-84FB-4CA73FDCF2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3460C12E-FD22-4CA3-84FB-4CA73FDCF2E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31AAB99-2EA2-4626-B696-299824F29894}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31AAB99-2EA2-4626-B696-299824F29894}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A08CD71-5E2D-4905-B2EF-ECA0943377A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Waste/A1_Outputs/A-O_Parametrization.xlsx
+++ b/Waste/A1_Outputs/A-O_Parametrization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\Waste_2025_01_13\A1_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clgcr.sharepoint.com/sites/ClimateLeadGroup-NDC_Ecu/Documentos compartidos/ECU_NDC_model/setup_phase_4/Waste_2025_01_13/A1_Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBA5A1-4836-4BE9-BA9E-F3B9ED34543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixed Horizon Parameters" sheetId="1" r:id="rId1"/>
@@ -2453,9 +2453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17632,21 +17632,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8F814574E960A4499025803604D4DF4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314e7041d7d1561dbe33e80becf1c782">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b2ff61d-e0c4-454b-ba72-44cf85c32a41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84c838da6aa04a0f137f8b0aba02cfe1" ns2:_="">
     <xsd:import namespace="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
@@ -17816,12 +17801,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3460C12E-FD22-4CA3-84FB-4CA73FDCF2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C434A2-0D8C-4D01-8612-90AF7E72ACDA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17834,19 +17830,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A08CD71-5E2D-4905-B2EF-ECA0943377A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3460C12E-FD22-4CA3-84FB-4CA73FDCF2E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>